--- a/Formatted_Excel_Files/Society_Poverty_$1.25 per day.xlsx
+++ b/Formatted_Excel_Files/Society_Poverty_$1.25 per day.xlsx
@@ -4,22 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="17520" windowHeight="13200" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="17520" windowHeight="13200" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Tropics" sheetId="2" r:id="rId2"/>
-    <sheet name="Rest of the World" sheetId="3" r:id="rId3"/>
-    <sheet name="Tropics-Tableau" sheetId="4" r:id="rId4"/>
-    <sheet name="Rest of the World-Tableau" sheetId="5" r:id="rId5"/>
-    <sheet name="World - Tableau" sheetId="6" r:id="rId6"/>
+    <sheet name="Summary (2)" sheetId="7" r:id="rId1"/>
+    <sheet name="Summary" sheetId="1" r:id="rId2"/>
+    <sheet name="Tropics" sheetId="2" r:id="rId3"/>
+    <sheet name="Rest of the World" sheetId="3" r:id="rId4"/>
+    <sheet name="Tropics-Tableau" sheetId="4" r:id="rId5"/>
+    <sheet name="Rest of the World-Tableau" sheetId="5" r:id="rId6"/>
+    <sheet name="World - Tableau" sheetId="6" r:id="rId7"/>
+    <sheet name="Summary (2)-Tableau" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3351" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3487" uniqueCount="234">
   <si>
     <t>Source</t>
   </si>
@@ -719,6 +721,9 @@
   <si>
     <t>Country or Area</t>
   </si>
+  <si>
+    <t>% of Population in Extreme Poverty</t>
+  </si>
 </sst>
 </file>
 
@@ -1093,6 +1098,480 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1981</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1984</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1987</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1990</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1993</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1996</v>
+      </c>
+      <c r="H1" s="1">
+        <v>1999</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2002</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2005</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2008</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>50.591021128043693</v>
+      </c>
+      <c r="C2">
+        <v>48.712318575419943</v>
+      </c>
+      <c r="D2">
+        <v>47.018261098915524</v>
+      </c>
+      <c r="E2">
+        <v>45.639591498569551</v>
+      </c>
+      <c r="F2">
+        <v>44.692406622673921</v>
+      </c>
+      <c r="G2">
+        <v>41.129150499515205</v>
+      </c>
+      <c r="H2">
+        <v>40.822113481933101</v>
+      </c>
+      <c r="I2">
+        <v>37.486938386177741</v>
+      </c>
+      <c r="J2">
+        <v>33.156077264054609</v>
+      </c>
+      <c r="K2">
+        <v>30.633296567374824</v>
+      </c>
+      <c r="L2">
+        <v>28.425002185801375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>52.833988435508239</v>
+      </c>
+      <c r="C3">
+        <v>56.938810757092071</v>
+      </c>
+      <c r="D3">
+        <v>55.990966638152237</v>
+      </c>
+      <c r="E3">
+        <v>58.47665485740314</v>
+      </c>
+      <c r="F3">
+        <v>62.117695598595631</v>
+      </c>
+      <c r="G3">
+        <v>61.302998885411739</v>
+      </c>
+      <c r="H3">
+        <v>61.46447911504076</v>
+      </c>
+      <c r="I3">
+        <v>59.896051506869419</v>
+      </c>
+      <c r="J3">
+        <v>57.247865944734876</v>
+      </c>
+      <c r="K3">
+        <v>54.527332945870391</v>
+      </c>
+      <c r="L3">
+        <v>53.590602370078535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>55.282202271894462</v>
+      </c>
+      <c r="C4">
+        <v>58.63719157472417</v>
+      </c>
+      <c r="D4">
+        <v>54.613178604365196</v>
+      </c>
+      <c r="E4">
+        <v>55.908171404327526</v>
+      </c>
+      <c r="F4">
+        <v>52.252215352910866</v>
+      </c>
+      <c r="G4">
+        <v>49.823411335841953</v>
+      </c>
+      <c r="H4">
+        <v>45.705018358531326</v>
+      </c>
+      <c r="I4">
+        <v>39.378447112522338</v>
+      </c>
+      <c r="J4">
+        <v>33.133097038724372</v>
+      </c>
+      <c r="K4">
+        <v>28.960244228839084</v>
+      </c>
+      <c r="L4">
+        <v>29.057092260257733</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>58.732536478280018</v>
+      </c>
+      <c r="C5">
+        <v>54.814419565919302</v>
+      </c>
+      <c r="D5">
+        <v>53.115444492116367</v>
+      </c>
+      <c r="E5">
+        <v>51.453440248932871</v>
+      </c>
+      <c r="F5">
+        <v>49.689492187197999</v>
+      </c>
+      <c r="G5">
+        <v>47.264638317953676</v>
+      </c>
+      <c r="H5">
+        <v>45.76502580890881</v>
+      </c>
+      <c r="I5">
+        <v>44.35351529327869</v>
+      </c>
+      <c r="J5">
+        <v>40.650843481508922</v>
+      </c>
+      <c r="K5">
+        <v>37.147152712140915</v>
+      </c>
+      <c r="L5">
+        <v>32.626637345183305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>63.127063214945082</v>
+      </c>
+      <c r="C6">
+        <v>56.161902204694258</v>
+      </c>
+      <c r="D6">
+        <v>54.353621255462748</v>
+      </c>
+      <c r="E6">
+        <v>48.384167037269101</v>
+      </c>
+      <c r="F6">
+        <v>44.996047399528699</v>
+      </c>
+      <c r="G6">
+        <v>35.017234712625772</v>
+      </c>
+      <c r="H6">
+        <v>35.184646547360316</v>
+      </c>
+      <c r="I6">
+        <v>26.07044809694688</v>
+      </c>
+      <c r="J6">
+        <v>18.326864853468138</v>
+      </c>
+      <c r="K6">
+        <v>16.290311193226124</v>
+      </c>
+      <c r="L6">
+        <v>13.6755636067138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>24.680139906728851</v>
+      </c>
+      <c r="C7">
+        <v>27.015065502183404</v>
+      </c>
+      <c r="D7">
+        <v>27.096968805179518</v>
+      </c>
+      <c r="E7">
+        <v>24.915401785714288</v>
+      </c>
+      <c r="F7">
+        <v>26.764666313559321</v>
+      </c>
+      <c r="G7">
+        <v>27.36044813695872</v>
+      </c>
+      <c r="H7">
+        <v>27.032872238232468</v>
+      </c>
+      <c r="I7">
+        <v>28.118848987108652</v>
+      </c>
+      <c r="J7">
+        <v>29.224650132860948</v>
+      </c>
+      <c r="K7">
+        <v>27.839551665243384</v>
+      </c>
+      <c r="L7">
+        <v>28.211131051752918</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>14.008369639330386</v>
+      </c>
+      <c r="C8">
+        <v>16.859446741644764</v>
+      </c>
+      <c r="D8">
+        <v>14.843847296860591</v>
+      </c>
+      <c r="E8">
+        <v>11.871555798493359</v>
+      </c>
+      <c r="F8">
+        <v>9.2510849789525551</v>
+      </c>
+      <c r="G8">
+        <v>11.034601052383815</v>
+      </c>
+      <c r="H8">
+        <v>9.8452253729230446</v>
+      </c>
+      <c r="I8">
+        <v>8.7041407658990835</v>
+      </c>
+      <c r="J8">
+        <v>5.710624172248659</v>
+      </c>
+      <c r="K8">
+        <v>4.362975409989267</v>
+      </c>
+      <c r="L8">
+        <v>3.0786235449495929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>12.249069549866629</v>
+      </c>
+      <c r="C9">
+        <v>13.54445891910672</v>
+      </c>
+      <c r="D9">
+        <v>11.650057002755167</v>
+      </c>
+      <c r="E9">
+        <v>13.942265651217999</v>
+      </c>
+      <c r="F9">
+        <v>13.004398761264854</v>
+      </c>
+      <c r="G9">
+        <v>11.447774319772646</v>
+      </c>
+      <c r="H9">
+        <v>13.527445057204663</v>
+      </c>
+      <c r="I9">
+        <v>13.241088193605105</v>
+      </c>
+      <c r="J9">
+        <v>9.9846233318099671</v>
+      </c>
+      <c r="K9">
+        <v>7.1203760417904594</v>
+      </c>
+      <c r="L9">
+        <v>6.0413613452455808</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>30.576196473551637</v>
+      </c>
+      <c r="C10">
+        <v>34.130000000000003</v>
+      </c>
+      <c r="D10">
+        <v>34.212754880694149</v>
+      </c>
+      <c r="E10">
+        <v>42.005824847250508</v>
+      </c>
+      <c r="F10">
+        <v>36.970779467680607</v>
+      </c>
+      <c r="G10">
+        <v>35.253610619469022</v>
+      </c>
+      <c r="H10">
+        <v>34.371548599670511</v>
+      </c>
+      <c r="I10">
+        <v>45.765692307692305</v>
+      </c>
+      <c r="J10">
+        <v>43.120172910662816</v>
+      </c>
+      <c r="K10">
+        <v>38.195398110661259</v>
+      </c>
+      <c r="L10">
+        <v>34.9645935483871</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11">
+        <v>53.108930173087998</v>
+      </c>
+      <c r="C11">
+        <v>45.726797742123118</v>
+      </c>
+      <c r="D11">
+        <v>38.422709884759605</v>
+      </c>
+      <c r="E11">
+        <v>40.943151129505949</v>
+      </c>
+      <c r="F11">
+        <v>37.965121300402672</v>
+      </c>
+      <c r="G11">
+        <v>29.807581308428578</v>
+      </c>
+      <c r="H11">
+        <v>28.359855180597126</v>
+      </c>
+      <c r="I11">
+        <v>25.084713519616781</v>
+      </c>
+      <c r="J11">
+        <v>18.175549216481159</v>
+      </c>
+      <c r="K11">
+        <v>15.657944323519036</v>
+      </c>
+      <c r="L11">
+        <v>13.639619155332353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>52.013852941010654</v>
+      </c>
+      <c r="C12">
+        <v>47.037606681941391</v>
+      </c>
+      <c r="D12">
+        <v>42.232383545281216</v>
+      </c>
+      <c r="E12">
+        <v>43.041038833600282</v>
+      </c>
+      <c r="F12">
+        <v>41.006757187424355</v>
+      </c>
+      <c r="G12">
+        <v>34.985260208372111</v>
+      </c>
+      <c r="H12">
+        <v>34.135203203681897</v>
+      </c>
+      <c r="I12">
+        <v>30.904878930327335</v>
+      </c>
+      <c r="J12">
+        <v>25.293185862403224</v>
+      </c>
+      <c r="K12">
+        <v>22.857496360301923</v>
+      </c>
+      <c r="L12">
+        <v>20.799418491233908</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1587,7 +2066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M112"/>
   <sheetViews>
@@ -5495,7 +5974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M109"/>
   <sheetViews>
@@ -8751,11 +9230,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D847"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="G859" sqref="G859"/>
     </sheetView>
   </sheetViews>
@@ -20627,7 +21106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D573"/>
   <sheetViews>
@@ -28667,7 +29146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -29006,4 +29485,1361 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>1981</v>
+      </c>
+      <c r="C2">
+        <v>50.591021128043693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>1984</v>
+      </c>
+      <c r="C3">
+        <v>48.712318575419943</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>1987</v>
+      </c>
+      <c r="C4">
+        <v>47.018261098915524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>1990</v>
+      </c>
+      <c r="C5">
+        <v>45.639591498569551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>1993</v>
+      </c>
+      <c r="C6">
+        <v>44.692406622673921</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>1996</v>
+      </c>
+      <c r="C7">
+        <v>41.129150499515205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>1999</v>
+      </c>
+      <c r="C8">
+        <v>40.822113481933101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>2002</v>
+      </c>
+      <c r="C9">
+        <v>37.486938386177741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>2005</v>
+      </c>
+      <c r="C10">
+        <v>33.156077264054609</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>2008</v>
+      </c>
+      <c r="C11">
+        <v>30.633296567374824</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>2010</v>
+      </c>
+      <c r="C12">
+        <v>28.425002185801375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>1981</v>
+      </c>
+      <c r="C13">
+        <v>52.833988435508239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1984</v>
+      </c>
+      <c r="C14">
+        <v>56.938810757092071</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>1987</v>
+      </c>
+      <c r="C15">
+        <v>55.990966638152237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>1990</v>
+      </c>
+      <c r="C16">
+        <v>58.47665485740314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>1993</v>
+      </c>
+      <c r="C17">
+        <v>62.117695598595631</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>1996</v>
+      </c>
+      <c r="C18">
+        <v>61.302998885411739</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>1999</v>
+      </c>
+      <c r="C19">
+        <v>61.46447911504076</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>2002</v>
+      </c>
+      <c r="C20">
+        <v>59.896051506869419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>2005</v>
+      </c>
+      <c r="C21">
+        <v>57.247865944734876</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>2008</v>
+      </c>
+      <c r="C22">
+        <v>54.527332945870391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>2010</v>
+      </c>
+      <c r="C23">
+        <v>53.590602370078535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>1981</v>
+      </c>
+      <c r="C24">
+        <v>55.282202271894462</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>1984</v>
+      </c>
+      <c r="C25">
+        <v>58.63719157472417</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>1987</v>
+      </c>
+      <c r="C26">
+        <v>54.613178604365196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>1990</v>
+      </c>
+      <c r="C27">
+        <v>55.908171404327526</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>1993</v>
+      </c>
+      <c r="C28">
+        <v>52.252215352910866</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>1996</v>
+      </c>
+      <c r="C29">
+        <v>49.823411335841953</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>1999</v>
+      </c>
+      <c r="C30">
+        <v>45.705018358531326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>2002</v>
+      </c>
+      <c r="C31">
+        <v>39.378447112522338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>2005</v>
+      </c>
+      <c r="C32">
+        <v>33.133097038724372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>2008</v>
+      </c>
+      <c r="C33">
+        <v>28.960244228839084</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>2010</v>
+      </c>
+      <c r="C34">
+        <v>29.057092260257733</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>1981</v>
+      </c>
+      <c r="C35">
+        <v>58.732536478280018</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>1984</v>
+      </c>
+      <c r="C36">
+        <v>54.814419565919302</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>1987</v>
+      </c>
+      <c r="C37">
+        <v>53.115444492116367</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>1990</v>
+      </c>
+      <c r="C38">
+        <v>51.453440248932871</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>1993</v>
+      </c>
+      <c r="C39">
+        <v>49.689492187197999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>1996</v>
+      </c>
+      <c r="C40">
+        <v>47.264638317953676</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>1999</v>
+      </c>
+      <c r="C41">
+        <v>45.76502580890881</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>2002</v>
+      </c>
+      <c r="C42">
+        <v>44.35351529327869</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>2005</v>
+      </c>
+      <c r="C43">
+        <v>40.650843481508922</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>2008</v>
+      </c>
+      <c r="C44">
+        <v>37.147152712140915</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>2010</v>
+      </c>
+      <c r="C45">
+        <v>32.626637345183305</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <v>1981</v>
+      </c>
+      <c r="C46">
+        <v>63.127063214945082</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47">
+        <v>1984</v>
+      </c>
+      <c r="C47">
+        <v>56.161902204694258</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48">
+        <v>1987</v>
+      </c>
+      <c r="C48">
+        <v>54.353621255462748</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49">
+        <v>1990</v>
+      </c>
+      <c r="C49">
+        <v>48.384167037269101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50">
+        <v>1993</v>
+      </c>
+      <c r="C50">
+        <v>44.996047399528699</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51">
+        <v>1996</v>
+      </c>
+      <c r="C51">
+        <v>35.017234712625772</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52">
+        <v>1999</v>
+      </c>
+      <c r="C52">
+        <v>35.184646547360316</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53">
+        <v>2002</v>
+      </c>
+      <c r="C53">
+        <v>26.07044809694688</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54">
+        <v>2005</v>
+      </c>
+      <c r="C54">
+        <v>18.326864853468138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55">
+        <v>2008</v>
+      </c>
+      <c r="C55">
+        <v>16.290311193226124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56">
+        <v>2010</v>
+      </c>
+      <c r="C56">
+        <v>13.6755636067138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57">
+        <v>1981</v>
+      </c>
+      <c r="C57">
+        <v>24.680139906728851</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58">
+        <v>1984</v>
+      </c>
+      <c r="C58">
+        <v>27.015065502183404</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59">
+        <v>1987</v>
+      </c>
+      <c r="C59">
+        <v>27.096968805179518</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60">
+        <v>1990</v>
+      </c>
+      <c r="C60">
+        <v>24.915401785714288</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61">
+        <v>1993</v>
+      </c>
+      <c r="C61">
+        <v>26.764666313559321</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62">
+        <v>1996</v>
+      </c>
+      <c r="C62">
+        <v>27.36044813695872</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63">
+        <v>1999</v>
+      </c>
+      <c r="C63">
+        <v>27.032872238232468</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64">
+        <v>2002</v>
+      </c>
+      <c r="C64">
+        <v>28.118848987108652</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65">
+        <v>2005</v>
+      </c>
+      <c r="C65">
+        <v>29.224650132860948</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66">
+        <v>2008</v>
+      </c>
+      <c r="C66">
+        <v>27.839551665243384</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67">
+        <v>2010</v>
+      </c>
+      <c r="C67">
+        <v>28.211131051752918</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68">
+        <v>1981</v>
+      </c>
+      <c r="C68">
+        <v>14.008369639330386</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69">
+        <v>1984</v>
+      </c>
+      <c r="C69">
+        <v>16.859446741644764</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70">
+        <v>1987</v>
+      </c>
+      <c r="C70">
+        <v>14.843847296860591</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71">
+        <v>1990</v>
+      </c>
+      <c r="C71">
+        <v>11.871555798493359</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72">
+        <v>1993</v>
+      </c>
+      <c r="C72">
+        <v>9.2510849789525551</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73">
+        <v>1996</v>
+      </c>
+      <c r="C73">
+        <v>11.034601052383815</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74">
+        <v>1999</v>
+      </c>
+      <c r="C74">
+        <v>9.8452253729230446</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75">
+        <v>2002</v>
+      </c>
+      <c r="C75">
+        <v>8.7041407658990835</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76">
+        <v>2005</v>
+      </c>
+      <c r="C76">
+        <v>5.710624172248659</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77">
+        <v>2008</v>
+      </c>
+      <c r="C77">
+        <v>4.362975409989267</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78">
+        <v>2010</v>
+      </c>
+      <c r="C78">
+        <v>3.0786235449495929</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79">
+        <v>1981</v>
+      </c>
+      <c r="C79">
+        <v>12.249069549866629</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80">
+        <v>1984</v>
+      </c>
+      <c r="C80">
+        <v>13.54445891910672</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81">
+        <v>1987</v>
+      </c>
+      <c r="C81">
+        <v>11.650057002755167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82">
+        <v>1990</v>
+      </c>
+      <c r="C82">
+        <v>13.942265651217999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83">
+        <v>1993</v>
+      </c>
+      <c r="C83">
+        <v>13.004398761264854</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84">
+        <v>1996</v>
+      </c>
+      <c r="C84">
+        <v>11.447774319772646</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85">
+        <v>1999</v>
+      </c>
+      <c r="C85">
+        <v>13.527445057204663</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86">
+        <v>2002</v>
+      </c>
+      <c r="C86">
+        <v>13.241088193605105</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87">
+        <v>2005</v>
+      </c>
+      <c r="C87">
+        <v>9.9846233318099671</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88">
+        <v>2008</v>
+      </c>
+      <c r="C88">
+        <v>7.1203760417904594</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89">
+        <v>2010</v>
+      </c>
+      <c r="C89">
+        <v>6.0413613452455808</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90">
+        <v>1981</v>
+      </c>
+      <c r="C90">
+        <v>30.576196473551637</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91">
+        <v>1984</v>
+      </c>
+      <c r="C91">
+        <v>34.130000000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92">
+        <v>1987</v>
+      </c>
+      <c r="C92">
+        <v>34.212754880694149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93">
+        <v>1990</v>
+      </c>
+      <c r="C93">
+        <v>42.005824847250508</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94">
+        <v>1993</v>
+      </c>
+      <c r="C94">
+        <v>36.970779467680607</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95">
+        <v>1996</v>
+      </c>
+      <c r="C95">
+        <v>35.253610619469022</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96">
+        <v>1999</v>
+      </c>
+      <c r="C96">
+        <v>34.371548599670511</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97">
+        <v>2002</v>
+      </c>
+      <c r="C97">
+        <v>45.765692307692305</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98">
+        <v>2005</v>
+      </c>
+      <c r="C98">
+        <v>43.120172910662816</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99">
+        <v>2008</v>
+      </c>
+      <c r="C99">
+        <v>38.195398110661259</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100">
+        <v>2010</v>
+      </c>
+      <c r="C100">
+        <v>34.9645935483871</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>127</v>
+      </c>
+      <c r="B101">
+        <v>1981</v>
+      </c>
+      <c r="C101">
+        <v>53.108930173087998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>127</v>
+      </c>
+      <c r="B102">
+        <v>1984</v>
+      </c>
+      <c r="C102">
+        <v>45.726797742123118</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>127</v>
+      </c>
+      <c r="B103">
+        <v>1987</v>
+      </c>
+      <c r="C103">
+        <v>38.422709884759605</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104">
+        <v>1990</v>
+      </c>
+      <c r="C104">
+        <v>40.943151129505949</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>127</v>
+      </c>
+      <c r="B105">
+        <v>1993</v>
+      </c>
+      <c r="C105">
+        <v>37.965121300402672</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>127</v>
+      </c>
+      <c r="B106">
+        <v>1996</v>
+      </c>
+      <c r="C106">
+        <v>29.807581308428578</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>127</v>
+      </c>
+      <c r="B107">
+        <v>1999</v>
+      </c>
+      <c r="C107">
+        <v>28.359855180597126</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>127</v>
+      </c>
+      <c r="B108">
+        <v>2002</v>
+      </c>
+      <c r="C108">
+        <v>25.084713519616781</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>127</v>
+      </c>
+      <c r="B109">
+        <v>2005</v>
+      </c>
+      <c r="C109">
+        <v>18.175549216481159</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>127</v>
+      </c>
+      <c r="B110">
+        <v>2008</v>
+      </c>
+      <c r="C110">
+        <v>15.657944323519036</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>127</v>
+      </c>
+      <c r="B111">
+        <v>2010</v>
+      </c>
+      <c r="C111">
+        <v>13.639619155332353</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112">
+        <v>1981</v>
+      </c>
+      <c r="C112">
+        <v>52.013852941010654</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113">
+        <v>1984</v>
+      </c>
+      <c r="C113">
+        <v>47.037606681941391</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114">
+        <v>1987</v>
+      </c>
+      <c r="C114">
+        <v>42.232383545281216</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115">
+        <v>1990</v>
+      </c>
+      <c r="C115">
+        <v>43.041038833600282</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116">
+        <v>1993</v>
+      </c>
+      <c r="C116">
+        <v>41.006757187424355</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117">
+        <v>1996</v>
+      </c>
+      <c r="C117">
+        <v>34.985260208372111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118">
+        <v>1999</v>
+      </c>
+      <c r="C118">
+        <v>34.135203203681897</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119">
+        <v>2002</v>
+      </c>
+      <c r="C119">
+        <v>30.904878930327335</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120">
+        <v>2005</v>
+      </c>
+      <c r="C120">
+        <v>25.293185862403224</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121">
+        <v>2008</v>
+      </c>
+      <c r="C121">
+        <v>22.857496360301923</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122">
+        <v>2010</v>
+      </c>
+      <c r="C122">
+        <v>20.799418491233908</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>